--- a/003.python_study/006.project/001.sql_approval/001.Archery/001.快速使用/003.业务功能/001.Archery功能梳理.xlsx
+++ b/003.python_study/006.project/001.sql_approval/001.Archery/001.快速使用/003.业务功能/001.Archery功能梳理.xlsx
@@ -4,12 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" activeTab="1"/>
+    <workbookView windowWidth="20752" windowHeight="9555" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="0.系统功能" sheetId="1" r:id="rId1"/>
     <sheet name="1.仪表盘" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="2.SQL审核" sheetId="3" r:id="rId3"/>
+    <sheet name="3.SQL查询" sheetId="4" r:id="rId4"/>
+    <sheet name="4.SQL优化" sheetId="6" r:id="rId5"/>
+    <sheet name="5.实例管理" sheetId="5" r:id="rId6"/>
+    <sheet name="6.工具插件" sheetId="7" r:id="rId7"/>
+    <sheet name="7.系统管理" sheetId="8" r:id="rId8"/>
+    <sheet name="8.系统审计" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,29 +35,477 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>橄榄块</t>
-  </si>
-  <si>
-    <t>SQL上线工单</t>
-  </si>
-  <si>
-    <t>1.显示“SQL上线工单”数量
-2.跳转“SQL上线工单”页</t>
-  </si>
-  <si>
-    <t>SQL查询工单</t>
-  </si>
-  <si>
-    <t>1.显示“SQL查询工单”数量
-2.跳转“SQL查询工单”页</t>
-  </si>
-  <si>
-    <t>平台用户</t>
-  </si>
-  <si>
-    <t>实例数量</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="155">
+  <si>
+    <t>待办列表</t>
+  </si>
+  <si>
+    <t>登陆</t>
+  </si>
+  <si>
+    <t>登出</t>
+  </si>
+  <si>
+    <t>修改密码</t>
+  </si>
+  <si>
+    <t>SQL上线</t>
+  </si>
+  <si>
+    <t>“SQL上线工单”数量显示</t>
+  </si>
+  <si>
+    <t>“SQL上线”跳转</t>
+  </si>
+  <si>
+    <t>SQL查询</t>
+  </si>
+  <si>
+    <t>“SQL查询工单”数量显示</t>
+  </si>
+  <si>
+    <t>“SQL查询”跳转</t>
+  </si>
+  <si>
+    <t>用户</t>
+  </si>
+  <si>
+    <t>“平台用户”数量显示</t>
+  </si>
+  <si>
+    <t>“平台用户”管理跳转</t>
+  </si>
+  <si>
+    <t>图表</t>
+  </si>
+  <si>
+    <t>SQL查询统计图表</t>
+  </si>
+  <si>
+    <t>SQL上线统计图表</t>
+  </si>
+  <si>
+    <t>SQL上线数量图表</t>
+  </si>
+  <si>
+    <t>DB检索行数</t>
+  </si>
+  <si>
+    <t>SQL上线用户</t>
+  </si>
+  <si>
+    <t>SQL查询用户</t>
+  </si>
+  <si>
+    <t>24h慢查询db维度统计</t>
+  </si>
+  <si>
+    <t>24h慢查询db/user维度统计</t>
+  </si>
+  <si>
+    <t>工单列表</t>
+  </si>
+  <si>
+    <t>工单数据分页展示</t>
+  </si>
+  <si>
+    <t>条件查询</t>
+  </si>
+  <si>
+    <t>条件搜索</t>
+  </si>
+  <si>
+    <t>列表和风格切换</t>
+  </si>
+  <si>
+    <t>显示指定列</t>
+  </si>
+  <si>
+    <t>工单日志</t>
+  </si>
+  <si>
+    <t>工单审批历史</t>
+  </si>
+  <si>
+    <t>通过列表显示工单的审批过程</t>
+  </si>
+  <si>
+    <t>工单导出</t>
+  </si>
+  <si>
+    <t>json、xml、csv、txt、sql、excel</t>
+  </si>
+  <si>
+    <t>详情</t>
+  </si>
+  <si>
+    <t>审批流</t>
+  </si>
+  <si>
+    <t>显示这个工单的审批流程，
+同时根据字体颜色来区别是在审批中还是完成审批</t>
+  </si>
+  <si>
+    <t>其他信息</t>
+  </si>
+  <si>
+    <t>显示工单内的概览信息</t>
+  </si>
+  <si>
+    <t>Tab-工单详情（列表）：</t>
+  </si>
+  <si>
+    <t>要执行的详细SQL、状态、扫描/影响行数等信息</t>
+  </si>
+  <si>
+    <t>展示、全部展开</t>
+  </si>
+  <si>
+    <t>操作信息</t>
+  </si>
+  <si>
+    <t>Tab-工单日志</t>
+  </si>
+  <si>
+    <t>同“工单日志”</t>
+  </si>
+  <si>
+    <t>操作</t>
+  </si>
+  <si>
+    <t>立即执行</t>
+  </si>
+  <si>
+    <t>定时执行</t>
+  </si>
+  <si>
+    <t>终止流程</t>
+  </si>
+  <si>
+    <t>可执行时间变更</t>
+  </si>
+  <si>
+    <t>（审批人）</t>
+  </si>
+  <si>
+    <t>审核通过</t>
+  </si>
+  <si>
+    <t>提交SQL</t>
+  </si>
+  <si>
+    <t>上传SQL文件
+移除上传的文件</t>
+  </si>
+  <si>
+    <t>SQL填写面板</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上线工单名称 </t>
+  </si>
+  <si>
+    <t>需求连接</t>
+  </si>
+  <si>
+    <t>资源组</t>
+  </si>
+  <si>
+    <t>实例名</t>
+  </si>
+  <si>
+    <t>数据库名</t>
+  </si>
+  <si>
+    <t>可执行的时间范围</t>
+  </si>
+  <si>
+    <t>审批流程展示</t>
+  </si>
+  <si>
+    <t>美化</t>
+  </si>
+  <si>
+    <t>SQL检测</t>
+  </si>
+  <si>
+    <t>SQL提交</t>
+  </si>
+  <si>
+    <t>检测结果:列表展示检测结果</t>
+  </si>
+  <si>
+    <t>SQL分析</t>
+  </si>
+  <si>
+    <t>分析选项</t>
+  </si>
+  <si>
+    <t>上传包含SQL的文件</t>
+  </si>
+  <si>
+    <t>操作“开始分析”</t>
+  </si>
+  <si>
+    <t>SQL列表</t>
+  </si>
+  <si>
+    <t>显示分析报告</t>
+  </si>
+  <si>
+    <t>权限管理</t>
+  </si>
+  <si>
+    <t>权限申请
+（需要申请权限才能在线查询）</t>
+  </si>
+  <si>
+    <t>实例</t>
+  </si>
+  <si>
+    <t>级别</t>
+  </si>
+  <si>
+    <t>表级/数据库级</t>
+  </si>
+  <si>
+    <t>数据库</t>
+  </si>
+  <si>
+    <t>授权期限</t>
+  </si>
+  <si>
+    <t>查询行数限制</t>
+  </si>
+  <si>
+    <t>审批流显示</t>
+  </si>
+  <si>
+    <t>提交申请</t>
+  </si>
+  <si>
+    <t>权限管理
+对查询权限进行管理（略）</t>
+  </si>
+  <si>
+    <t>登陆者申请的权限列表</t>
+  </si>
+  <si>
+    <t>变量权限</t>
+  </si>
+  <si>
+    <t>（管理员）</t>
+  </si>
+  <si>
+    <t>删除权限</t>
+  </si>
+  <si>
+    <t>数据字典</t>
+  </si>
+  <si>
+    <t>导出</t>
+  </si>
+  <si>
+    <t>参数：实例</t>
+  </si>
+  <si>
+    <t>参数：数据库</t>
+  </si>
+  <si>
+    <t>数据库表、字段名、数据类型、主键、字段注释、默认值、约束条件、索引、关系等详细信息。</t>
+  </si>
+  <si>
+    <t>操作：表结构
+（展示表的结构）</t>
+  </si>
+  <si>
+    <t>表</t>
+  </si>
+  <si>
+    <t>操作：执行计划</t>
+  </si>
+  <si>
+    <t>输入SQL语句</t>
+  </si>
+  <si>
+    <t>执行计划</t>
+  </si>
+  <si>
+    <t>操作：SQL查询</t>
+  </si>
+  <si>
+    <t>查询结果</t>
+  </si>
+  <si>
+    <t>查询历史（固定）</t>
+  </si>
+  <si>
+    <t>列表\分页等</t>
+  </si>
+  <si>
+    <t>优化工具</t>
+  </si>
+  <si>
+    <t>SQL优化工具</t>
+  </si>
+  <si>
+    <t>[MySQL]SQLAdvisor：</t>
+  </si>
+  <si>
+    <t>使用不同的工
+具对SQL进行优化</t>
+  </si>
+  <si>
+    <t>[MySQL]SOAR：</t>
+  </si>
+  <si>
+    <t>[MySQL]MySQLTuning：</t>
+  </si>
+  <si>
+    <t>[ORACLE]SQL Tuning Advisor：</t>
+  </si>
+  <si>
+    <t>优化建议</t>
+  </si>
+  <si>
+    <t>显示结果</t>
+  </si>
+  <si>
+    <t>慢查日志</t>
+  </si>
+  <si>
+    <t>（略）</t>
+  </si>
+  <si>
+    <t>实例列表</t>
+  </si>
+  <si>
+    <t>列表</t>
+  </si>
+  <si>
+    <t>列表展示数据</t>
+  </si>
+  <si>
+    <t>操作：测试实例连接</t>
+  </si>
+  <si>
+    <t>操作：其它</t>
+  </si>
+  <si>
+    <t>添加实例</t>
+  </si>
+  <si>
+    <t>基本信息</t>
+  </si>
+  <si>
+    <t>所属于资源组</t>
+  </si>
+  <si>
+    <t>实例标签</t>
+  </si>
+  <si>
+    <t>会话管理</t>
+  </si>
+  <si>
+    <t>进程状态</t>
+  </si>
+  <si>
+    <t>Top表空间</t>
+  </si>
+  <si>
+    <t>事务信息</t>
+  </si>
+  <si>
+    <t>锁信息</t>
+  </si>
+  <si>
+    <t>数据库管理</t>
+  </si>
+  <si>
+    <t>列表展示</t>
+  </si>
+  <si>
+    <t>创建数据库</t>
+  </si>
+  <si>
+    <t>在“指定实例上面创建新的数据库”</t>
+  </si>
+  <si>
+    <t>编译数据</t>
+  </si>
+  <si>
+    <t>账号管理</t>
+  </si>
+  <si>
+    <t>编译</t>
+  </si>
+  <si>
+    <t>授权</t>
+  </si>
+  <si>
+    <t>改变</t>
+  </si>
+  <si>
+    <t>锁定</t>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>参数配置</t>
+  </si>
+  <si>
+    <t>(略)</t>
+  </si>
+  <si>
+    <t>PTArchiver</t>
+  </si>
+  <si>
+    <t>mysql的数据归档工具</t>
+  </si>
+  <si>
+    <t>My2SQL</t>
+  </si>
+  <si>
+    <t>mysql的binlog分析工具</t>
+  </si>
+  <si>
+    <t>SchemaSync</t>
+  </si>
+  <si>
+    <t>mysql数据同步工具</t>
+  </si>
+  <si>
+    <t>配置项管理</t>
+  </si>
+  <si>
+    <t>系统配置</t>
+  </si>
+  <si>
+    <t>资源组管理</t>
+  </si>
+  <si>
+    <t>数据库实例的集合称为资源组</t>
+  </si>
+  <si>
+    <t>其它</t>
+  </si>
+  <si>
+    <t>用户管理</t>
+  </si>
+  <si>
+    <t>权限组</t>
+  </si>
+  <si>
+    <t>其它django的内容</t>
+  </si>
+  <si>
+    <t>通过审计</t>
+  </si>
+  <si>
+    <t>sql上线审计</t>
+  </si>
+  <si>
+    <t>查询审计</t>
   </si>
 </sst>
 </file>
@@ -64,13 +518,25 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -411,10 +877,62 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -537,142 +1055,205 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -985,14 +1566,38 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="G10:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="7" max="7" width="23.9734513274336" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="7:7">
+      <c r="G10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="7:7">
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="7:7">
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="7:7">
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1002,49 +1607,117 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C9:E12"/>
+  <dimension ref="D3:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="22.6371681415929" customWidth="1"/>
-    <col min="4" max="4" width="22.8407079646018" customWidth="1"/>
-    <col min="5" max="5" width="37.3716814159292" customWidth="1"/>
+    <col min="4" max="4" width="17.929203539823" customWidth="1"/>
+    <col min="5" max="5" width="39.4955752212389" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" ht="27" spans="3:5">
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" ht="27" spans="4:5">
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1" t="s">
+    <row r="3" spans="4:5">
+      <c r="D3" s="21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="4:4">
-      <c r="D11" t="s">
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="4:4">
-      <c r="D12" t="s">
+    <row r="4" spans="4:5">
+      <c r="D4" s="21"/>
+      <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="4:5">
+      <c r="D5" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5">
+      <c r="D6" s="21"/>
+      <c r="E6" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5">
+      <c r="D7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5">
+      <c r="D8" s="21"/>
+      <c r="E8" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5">
+      <c r="D9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5">
+      <c r="D10" s="21"/>
+      <c r="E10" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5">
+      <c r="D11" s="21"/>
+      <c r="E11" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5">
+      <c r="D12" s="21"/>
+      <c r="E12" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5">
+      <c r="D13" s="21"/>
+      <c r="E13" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5">
+      <c r="D14" s="21"/>
+      <c r="E14" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5">
+      <c r="D15" s="21"/>
+      <c r="E15" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5">
+      <c r="D16" s="21"/>
+      <c r="E16" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1053,17 +1726,1037 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="D11:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="4" max="4" width="12.2212389380531" customWidth="1"/>
+    <col min="5" max="5" width="12.6194690265487" customWidth="1"/>
+    <col min="6" max="6" width="40.716814159292" customWidth="1"/>
+    <col min="7" max="7" width="45.9646017699115" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="4:7">
+      <c r="D11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="4:7">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="4:7">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="4:7">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="4:7">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="4:7">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" ht="27" spans="4:7">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7">
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="4:7">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="4:7">
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="4:7">
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7">
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" ht="26" customHeight="1" spans="4:7">
+      <c r="D29" s="4"/>
+      <c r="E29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" ht="28" customHeight="1" spans="4:7">
+      <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7">
+      <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7">
+      <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7">
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7">
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7">
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7">
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7">
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7">
+      <c r="D38" s="4"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7">
+      <c r="D39" s="4"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7">
+      <c r="D40" s="4"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="4:7">
+      <c r="D41" s="4"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7">
+      <c r="D42" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="4:7">
+      <c r="D43" s="21"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="4:7">
+      <c r="D44" s="21"/>
+      <c r="E44" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G44" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="D11:D41"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="E18:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F29:F37"/>
+    <mergeCell ref="F38:F41"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="D7:G33"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="4" max="4" width="8.16814159292035" customWidth="1"/>
+    <col min="5" max="5" width="23.7610619469027" customWidth="1"/>
+    <col min="6" max="6" width="26.4070796460177" customWidth="1"/>
+    <col min="7" max="7" width="25.3628318584071" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:7">
+      <c r="D7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="4:7">
+      <c r="D8" s="14"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="4:7">
+      <c r="D9" s="14"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7">
+      <c r="D10" s="14"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="4:7">
+      <c r="D11" s="14"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="4:7">
+      <c r="D12" s="14"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="4:7">
+      <c r="D13" s="14"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="4:7">
+      <c r="D14" s="14"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="4:7">
+      <c r="D15" s="14"/>
+      <c r="E15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="4:7">
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7">
+      <c r="D17" s="14"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7">
+      <c r="D18" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="4:7">
+      <c r="D19" s="10"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" ht="54" spans="4:7">
+      <c r="D20" s="11"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7">
+      <c r="D21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="4:7">
+      <c r="D22" s="4"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="4:7">
+      <c r="D23" s="4"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="4:7">
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="4:7">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="4:7">
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="4:7">
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="4:7">
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="4:7">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="4:7">
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="4:7">
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="4:7">
+      <c r="D32" s="4"/>
+      <c r="E32" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7">
+      <c r="D33" s="4"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="D7:D17"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D21:D33"/>
+    <mergeCell ref="E7:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="E32:E33"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D8:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="5" max="5" width="12.5132743362832" customWidth="1"/>
+    <col min="6" max="6" width="33.6637168141593" customWidth="1"/>
+    <col min="7" max="7" width="25.2920353982301" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="4:7">
+      <c r="D8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7">
+      <c r="D9" s="2"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="4:7">
+      <c r="D10" s="2"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="4:7">
+      <c r="D11" s="2"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="4:7">
+      <c r="D12" s="2"/>
+      <c r="E12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="4:7">
+      <c r="D13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="G8:G11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D4:F22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="4" max="4" width="15.5398230088496" customWidth="1"/>
+    <col min="5" max="5" width="26.353982300885" customWidth="1"/>
+    <col min="6" max="6" width="19.6548672566372" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:6">
+      <c r="D4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6">
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6">
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6">
+      <c r="D7" s="3"/>
+      <c r="E7" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6">
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6">
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6">
+      <c r="D10" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="4:6">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="4:6">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="4:6">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="4:6">
+      <c r="D14" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="4:6">
+      <c r="D15" s="5"/>
+      <c r="E15" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6">
+      <c r="D16" s="5"/>
+      <c r="E16" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="4:6">
+      <c r="D17" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="4:6">
+      <c r="D18" s="4"/>
+      <c r="E18" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="4:6">
+      <c r="D19" s="4"/>
+      <c r="E19" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="4:6">
+      <c r="D20" s="4"/>
+      <c r="E20" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="4:6">
+      <c r="D21" s="4"/>
+      <c r="E21" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="4:6">
+      <c r="D22" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="D4:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F22"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C3:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <cols>
+    <col min="3" max="3" width="20.0530973451327" customWidth="1"/>
+    <col min="4" max="4" width="24.1061946902655" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:4">
+      <c r="C3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="H13:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="8" max="8" width="25.8938053097345" customWidth="1"/>
+    <col min="9" max="9" width="28.5309734513274" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="13" spans="8:9">
+      <c r="H13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="8:9">
+      <c r="H14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="8:9">
+      <c r="H15" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="8:9">
+      <c r="H16" s="2"/>
+      <c r="I16" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9">
+      <c r="H17" s="2"/>
+      <c r="I17" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H15:H17"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="J19:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="J19:J21 M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="10" max="10" width="12.5132743362832" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="19" spans="10:10">
+      <c r="J19" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="10:10">
+      <c r="J20" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="10:10">
+      <c r="J21" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>